--- a/Off/FFT_Audi.xlsx
+++ b/Off/FFT_Audi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="51">
   <si>
     <t>Project</t>
   </si>
@@ -74,9 +74,6 @@
     <t>SAAL</t>
   </si>
   <si>
-    <t>15D</t>
-  </si>
-  <si>
     <t>BG01 Base</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>Oasis</t>
   </si>
   <si>
-    <t>Geo</t>
-  </si>
-  <si>
     <t>BG07 Auflage</t>
   </si>
   <si>
@@ -144,14 +138,61 @@
   </si>
   <si>
     <t>CO-Ordination</t>
+  </si>
+  <si>
+    <t>15D 123456</t>
+  </si>
+  <si>
+    <t>15D 123457</t>
+  </si>
+  <si>
+    <t>15D 123458</t>
+  </si>
+  <si>
+    <t>15D 123459</t>
+  </si>
+  <si>
+    <t>BG07 Spanner</t>
+  </si>
+  <si>
+    <t>SBIL</t>
+  </si>
+  <si>
+    <t>15D 234567</t>
+  </si>
+  <si>
+    <t>15D 234568</t>
+  </si>
+  <si>
+    <t>15D 234569</t>
+  </si>
+  <si>
+    <t>15D 234570</t>
+  </si>
+  <si>
+    <t>ST15D Geo</t>
+  </si>
+  <si>
+    <t>Quality_Check</t>
+  </si>
+  <si>
+    <t>CADTECH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -179,8 +220,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,70 +503,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" customWidth="1"/>
+    <col min="17" max="17" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -535,102 +581,150 @@
         <v>3110</v>
       </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>3110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E3" t="s">
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>3110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>3110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>3110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>21</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -644,39 +738,63 @@
       <c r="I6">
         <v>3</v>
       </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>3110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
       <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>3110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>23</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -690,16 +808,28 @@
       <c r="I8">
         <v>7</v>
       </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>3110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -713,16 +843,28 @@
       <c r="I9">
         <v>7</v>
       </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>3110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -736,16 +878,28 @@
       <c r="I10">
         <v>8</v>
       </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>3110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -759,16 +913,28 @@
       <c r="I11">
         <v>5</v>
       </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>3110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -782,16 +948,28 @@
       <c r="I12">
         <v>5</v>
       </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>3110</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -805,16 +983,28 @@
       <c r="I13">
         <v>8</v>
       </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>3110</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -828,16 +1018,28 @@
       <c r="I14">
         <v>8</v>
       </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>3110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -851,16 +1053,28 @@
       <c r="I15">
         <v>8</v>
       </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>3110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -874,16 +1088,28 @@
       <c r="I16">
         <v>8</v>
       </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>3110</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -897,16 +1123,28 @@
       <c r="I17">
         <v>6</v>
       </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>3110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -920,16 +1158,28 @@
       <c r="I18">
         <v>4</v>
       </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>3110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -943,114 +1193,168 @@
       <c r="I19">
         <v>6</v>
       </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
       <c r="C20">
         <v>3120</v>
       </c>
       <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>3120</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
         <v>17</v>
       </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="K21">
         <v>1</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>3120</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>3120</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="K23">
         <v>1</v>
       </c>
-      <c r="K21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>3120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -1064,92 +1368,134 @@
       <c r="I24">
         <v>3</v>
       </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
       <c r="C25">
         <v>3130</v>
       </c>
       <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
         <v>16</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>3130</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
         <v>17</v>
       </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="K25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E26" t="s">
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>3130</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
         <v>18</v>
       </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-      <c r="K26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E27" t="s">
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>3130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
         <v>19</v>
       </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E28" t="s">
-        <v>20</v>
-      </c>
       <c r="F28">
         <v>3</v>
       </c>
@@ -1162,16 +1508,28 @@
       <c r="I28">
         <v>6</v>
       </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-      <c r="K28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>3130</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -1185,16 +1543,28 @@
       <c r="I29">
         <v>6</v>
       </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-      <c r="K29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>3130</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -1208,62 +1578,98 @@
       <c r="I30">
         <v>7</v>
       </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-      <c r="K30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>3130</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
       <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>3130</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
         <v>23</v>
       </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <v>6</v>
-      </c>
-      <c r="H31">
-        <v>4</v>
-      </c>
-      <c r="I31">
-        <v>5</v>
-      </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-      <c r="K31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E32" t="s">
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>3130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
         <v>24</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
-      </c>
-      <c r="H32">
-        <v>4</v>
-      </c>
-      <c r="I32">
-        <v>5</v>
-      </c>
-      <c r="J32">
-        <v>2</v>
-      </c>
-      <c r="K32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E33" t="s">
-        <v>25</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -1277,13 +1683,28 @@
       <c r="I33">
         <v>5</v>
       </c>
-      <c r="J33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>3130</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -1297,13 +1718,28 @@
       <c r="I34">
         <v>6</v>
       </c>
-      <c r="J34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>3130</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -1317,13 +1753,28 @@
       <c r="I35">
         <v>6</v>
       </c>
-      <c r="J35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>3130</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -1337,13 +1788,28 @@
       <c r="I36">
         <v>6</v>
       </c>
-      <c r="J36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>3130</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -1357,30 +1823,2290 @@
       <c r="I37">
         <v>3</v>
       </c>
-      <c r="J37">
-        <v>2</v>
-      </c>
-      <c r="K37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
       <c r="C38">
         <v>3140</v>
       </c>
       <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
         <v>16</v>
       </c>
       <c r="F38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>3140</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
       <c r="F39">
         <v>3</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>3140</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>3140</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>3140</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>3140</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>3140</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>3140</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>3140</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>3140</v>
+      </c>
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48">
+        <v>3210</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49">
+        <v>3210</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50">
+        <v>3210</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51">
+        <v>3210</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52">
+        <v>3210</v>
+      </c>
+      <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53">
+        <v>3210</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>7</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54">
+        <v>3210</v>
+      </c>
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55">
+        <v>3210</v>
+      </c>
+      <c r="D55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56">
+        <v>3210</v>
+      </c>
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>8</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57">
+        <v>3210</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>8</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>6</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58">
+        <v>3210</v>
+      </c>
+      <c r="D58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>8</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+      <c r="I58">
+        <v>6</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59">
+        <v>3210</v>
+      </c>
+      <c r="D59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>9</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60">
+        <v>3210</v>
+      </c>
+      <c r="D60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="K60">
+        <v>5</v>
+      </c>
+      <c r="L60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61">
+        <v>3220</v>
+      </c>
+      <c r="D61" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62">
+        <v>3220</v>
+      </c>
+      <c r="D62" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63">
+        <v>3220</v>
+      </c>
+      <c r="D63" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64">
+        <v>3220</v>
+      </c>
+      <c r="D64" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
+      <c r="I64">
+        <v>6</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65">
+        <v>3220</v>
+      </c>
+      <c r="D65" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>6</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66">
+        <v>3220</v>
+      </c>
+      <c r="D66" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>7</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67">
+        <v>3220</v>
+      </c>
+      <c r="D67" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>6</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68">
+        <v>3220</v>
+      </c>
+      <c r="D68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>6</v>
+      </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69">
+        <v>3220</v>
+      </c>
+      <c r="D69" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>8</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70">
+        <v>3220</v>
+      </c>
+      <c r="D70" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>8</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+      <c r="I70">
+        <v>6</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71">
+        <v>3220</v>
+      </c>
+      <c r="D71" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>8</v>
+      </c>
+      <c r="H71">
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <v>6</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72">
+        <v>3220</v>
+      </c>
+      <c r="D72" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>9</v>
+      </c>
+      <c r="H72">
+        <v>6</v>
+      </c>
+      <c r="I72">
+        <v>6</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73">
+        <v>3220</v>
+      </c>
+      <c r="D73" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="K73">
+        <v>5</v>
+      </c>
+      <c r="L73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74">
+        <v>3230</v>
+      </c>
+      <c r="D74" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75">
+        <v>3230</v>
+      </c>
+      <c r="D75" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76">
+        <v>3230</v>
+      </c>
+      <c r="D76" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77">
+        <v>3230</v>
+      </c>
+      <c r="D77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>6</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78">
+        <v>3230</v>
+      </c>
+      <c r="D78" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
+      </c>
+      <c r="I78">
+        <v>6</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79">
+        <v>3230</v>
+      </c>
+      <c r="D79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <v>4</v>
+      </c>
+      <c r="I79">
+        <v>7</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80">
+        <v>3230</v>
+      </c>
+      <c r="D80" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>6</v>
+      </c>
+      <c r="H80">
+        <v>4</v>
+      </c>
+      <c r="I80">
+        <v>5</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81">
+        <v>3230</v>
+      </c>
+      <c r="D81" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>6</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82">
+        <v>3230</v>
+      </c>
+      <c r="D82" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>8</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83">
+        <v>3230</v>
+      </c>
+      <c r="D83" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>8</v>
+      </c>
+      <c r="H83">
+        <v>6</v>
+      </c>
+      <c r="I83">
+        <v>6</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84">
+        <v>3230</v>
+      </c>
+      <c r="D84" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>8</v>
+      </c>
+      <c r="H84">
+        <v>6</v>
+      </c>
+      <c r="I84">
+        <v>6</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85">
+        <v>3230</v>
+      </c>
+      <c r="D85" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>9</v>
+      </c>
+      <c r="H85">
+        <v>6</v>
+      </c>
+      <c r="I85">
+        <v>6</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86">
+        <v>3230</v>
+      </c>
+      <c r="D86" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86" t="s">
+        <v>28</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>6</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>5</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87">
+        <v>3230</v>
+      </c>
+      <c r="D87" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>8</v>
+      </c>
+      <c r="H87">
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <v>5</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88">
+        <v>3230</v>
+      </c>
+      <c r="D88" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>8</v>
+      </c>
+      <c r="H88">
+        <v>6</v>
+      </c>
+      <c r="I88">
+        <v>6</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89">
+        <v>3230</v>
+      </c>
+      <c r="D89" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" t="s">
+        <v>48</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>6</v>
+      </c>
+      <c r="K89">
+        <v>5</v>
+      </c>
+      <c r="L89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90">
+        <v>3240</v>
+      </c>
+      <c r="D90" t="s">
+        <v>47</v>
+      </c>
+      <c r="E90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90">
+        <v>3</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91">
+        <v>3240</v>
+      </c>
+      <c r="D91" t="s">
+        <v>47</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92">
+        <v>3240</v>
+      </c>
+      <c r="D92" t="s">
+        <v>47</v>
+      </c>
+      <c r="E92" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93">
+        <v>3240</v>
+      </c>
+      <c r="D93" t="s">
+        <v>47</v>
+      </c>
+      <c r="E93" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+      <c r="H93">
+        <v>4</v>
+      </c>
+      <c r="I93">
+        <v>6</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94">
+        <v>3240</v>
+      </c>
+      <c r="D94" t="s">
+        <v>47</v>
+      </c>
+      <c r="E94" t="s">
+        <v>36</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>5</v>
+      </c>
+      <c r="H94">
+        <v>4</v>
+      </c>
+      <c r="I94">
+        <v>6</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95">
+        <v>3240</v>
+      </c>
+      <c r="D95" t="s">
+        <v>47</v>
+      </c>
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+      <c r="H95">
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>7</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96">
+        <v>3240</v>
+      </c>
+      <c r="D96" t="s">
+        <v>47</v>
+      </c>
+      <c r="E96" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96">
+        <v>6</v>
+      </c>
+      <c r="H96">
+        <v>4</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97">
+        <v>3240</v>
+      </c>
+      <c r="D97" t="s">
+        <v>47</v>
+      </c>
+      <c r="E97" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <v>6</v>
+      </c>
+      <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98">
+        <v>3240</v>
+      </c>
+      <c r="D98" t="s">
+        <v>47</v>
+      </c>
+      <c r="E98" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <v>8</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
+      </c>
+      <c r="I98">
+        <v>5</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99">
+        <v>3240</v>
+      </c>
+      <c r="D99" t="s">
+        <v>47</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>8</v>
+      </c>
+      <c r="H99">
+        <v>6</v>
+      </c>
+      <c r="I99">
+        <v>6</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100">
+        <v>3240</v>
+      </c>
+      <c r="D100" t="s">
+        <v>47</v>
+      </c>
+      <c r="E100" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>8</v>
+      </c>
+      <c r="H100">
+        <v>6</v>
+      </c>
+      <c r="I100">
+        <v>6</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101">
+        <v>3240</v>
+      </c>
+      <c r="D101" t="s">
+        <v>47</v>
+      </c>
+      <c r="E101" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>9</v>
+      </c>
+      <c r="H101">
+        <v>6</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102">
+        <v>3240</v>
+      </c>
+      <c r="D102" t="s">
+        <v>47</v>
+      </c>
+      <c r="E102" t="s">
+        <v>48</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>5</v>
+      </c>
+      <c r="K102">
+        <v>5</v>
+      </c>
+      <c r="L102" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>